--- a/team_specific_matrix/Loyola Maryland_B.xlsx
+++ b/team_specific_matrix/Loyola Maryland_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2100840336134454</v>
+        <v>0.2072368421052632</v>
       </c>
       <c r="C2">
-        <v>0.5168067226890757</v>
+        <v>0.5131578947368421</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01680672268907563</v>
+        <v>0.01973684210526316</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1680672268907563</v>
+        <v>0.1644736842105263</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08823529411764706</v>
+        <v>0.09539473684210527</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007874015748031496</v>
+        <v>0.006329113924050633</v>
       </c>
       <c r="C3">
-        <v>0.02362204724409449</v>
+        <v>0.0189873417721519</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04724409448818898</v>
+        <v>0.05063291139240506</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7165354330708661</v>
+        <v>0.7025316455696202</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2047244094488189</v>
+        <v>0.2215189873417721</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7307692307692307</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2692307692307692</v>
+        <v>0.2631578947368421</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07772020725388601</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01036269430051814</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04145077720207254</v>
+        <v>0.05982905982905983</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1606217616580311</v>
+        <v>0.1837606837606838</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0155440414507772</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1761658031088083</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R6">
-        <v>0.08808290155440414</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="S6">
-        <v>0.4300518134715026</v>
+        <v>0.4145299145299146</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1428571428571428</v>
+        <v>0.141025641025641</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03174603174603174</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04761904761904762</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.119047619047619</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01587301587301587</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1825396825396825</v>
+        <v>0.1858974358974359</v>
       </c>
       <c r="R7">
-        <v>0.07142857142857142</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="S7">
-        <v>0.3888888888888889</v>
+        <v>0.3782051282051282</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08615384615384615</v>
+        <v>0.0825</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02461538461538462</v>
+        <v>0.025</v>
       </c>
       <c r="E8">
-        <v>0.003076923076923077</v>
+        <v>0.0025</v>
       </c>
       <c r="F8">
-        <v>0.06461538461538462</v>
+        <v>0.055</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07692307692307693</v>
+        <v>0.0925</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01230769230769231</v>
+        <v>0.015</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2030769230769231</v>
+        <v>0.205</v>
       </c>
       <c r="R8">
-        <v>0.1107692307692308</v>
+        <v>0.1075</v>
       </c>
       <c r="S8">
-        <v>0.4184615384615384</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09937888198757763</v>
+        <v>0.1204188481675393</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01863354037267081</v>
+        <v>0.03141361256544502</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.005235602094240838</v>
       </c>
       <c r="F9">
-        <v>0.08074534161490683</v>
+        <v>0.07329842931937172</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03726708074534162</v>
+        <v>0.03664921465968586</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0124223602484472</v>
+        <v>0.01570680628272251</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2173913043478261</v>
+        <v>0.2303664921465969</v>
       </c>
       <c r="R9">
-        <v>0.124223602484472</v>
+        <v>0.1099476439790576</v>
       </c>
       <c r="S9">
-        <v>0.4099378881987578</v>
+        <v>0.3769633507853403</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1074626865671642</v>
+        <v>0.1118991331757289</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.009950248756218905</v>
+        <v>0.01339637509850276</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.08557213930348259</v>
+        <v>0.07880220646178093</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1134328358208955</v>
+        <v>0.1142631993695823</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01293532338308458</v>
+        <v>0.01654846335697399</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2189054726368159</v>
+        <v>0.2214342001576044</v>
       </c>
       <c r="R10">
-        <v>0.09850746268656717</v>
+        <v>0.08825847123719464</v>
       </c>
       <c r="S10">
-        <v>0.3532338308457711</v>
+        <v>0.355397951142632</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1434599156118143</v>
+        <v>0.1403508771929824</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1434599156118143</v>
+        <v>0.143859649122807</v>
       </c>
       <c r="K11">
-        <v>0.2362869198312236</v>
+        <v>0.2315789473684211</v>
       </c>
       <c r="L11">
-        <v>0.459915611814346</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01687763713080169</v>
+        <v>0.01754385964912281</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6814159292035398</v>
+        <v>0.697841726618705</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1858407079646018</v>
+        <v>0.1726618705035971</v>
       </c>
       <c r="K12">
-        <v>0.008849557522123894</v>
+        <v>0.007194244604316547</v>
       </c>
       <c r="L12">
-        <v>0.04424778761061947</v>
+        <v>0.04316546762589928</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.07964601769911504</v>
+        <v>0.07913669064748201</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6363636363636364</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2121212121212121</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1515151515151515</v>
+        <v>0.1282051282051282</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02105263157894737</v>
+        <v>0.03017241379310345</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1210526315789474</v>
+        <v>0.125</v>
       </c>
       <c r="I15">
-        <v>0.05263157894736842</v>
+        <v>0.04310344827586207</v>
       </c>
       <c r="J15">
-        <v>0.4578947368421052</v>
+        <v>0.4439655172413793</v>
       </c>
       <c r="K15">
-        <v>0.07894736842105263</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01052631578947368</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05789473684210526</v>
+        <v>0.06465517241379311</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2</v>
+        <v>0.2155172413793103</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03448275862068965</v>
+        <v>0.03804347826086957</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1379310344827586</v>
+        <v>0.125</v>
       </c>
       <c r="I16">
-        <v>0.1241379310344828</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="J16">
-        <v>0.3655172413793104</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="K16">
-        <v>0.1655172413793103</v>
+        <v>0.1467391304347826</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01379310344827586</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="N16">
-        <v>0.006896551724137931</v>
+        <v>0.005434782608695652</v>
       </c>
       <c r="O16">
-        <v>0.06206896551724138</v>
+        <v>0.08152173913043478</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.0896551724137931</v>
+        <v>0.09239130434782608</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01063829787234043</v>
+        <v>0.0105708245243129</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1356382978723404</v>
+        <v>0.1374207188160677</v>
       </c>
       <c r="I17">
-        <v>0.09042553191489362</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="J17">
-        <v>0.4228723404255319</v>
+        <v>0.427061310782241</v>
       </c>
       <c r="K17">
-        <v>0.09840425531914894</v>
+        <v>0.09725158562367865</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01595744680851064</v>
+        <v>0.01691331923890063</v>
       </c>
       <c r="N17">
-        <v>0.002659574468085106</v>
+        <v>0.002114164904862579</v>
       </c>
       <c r="O17">
-        <v>0.09308510638297872</v>
+        <v>0.08668076109936575</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1303191489361702</v>
+        <v>0.1310782241014799</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.005555555555555556</v>
+        <v>0.004926108374384237</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1777777777777778</v>
+        <v>0.1773399014778325</v>
       </c>
       <c r="I18">
-        <v>0.06111111111111111</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="J18">
-        <v>0.4055555555555556</v>
+        <v>0.4088669950738916</v>
       </c>
       <c r="K18">
-        <v>0.1222222222222222</v>
+        <v>0.1280788177339902</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01666666666666667</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08888888888888889</v>
+        <v>0.07881773399014778</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1222222222222222</v>
+        <v>0.1182266009852217</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02036659877800407</v>
+        <v>0.01877551020408163</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2067209775967414</v>
+        <v>0.2048979591836735</v>
       </c>
       <c r="I19">
-        <v>0.08859470468431772</v>
+        <v>0.08489795918367347</v>
       </c>
       <c r="J19">
-        <v>0.3828920570264766</v>
+        <v>0.3893877551020408</v>
       </c>
       <c r="K19">
-        <v>0.08553971486761711</v>
+        <v>0.08653061224489796</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02138492871690428</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="N19">
-        <v>0.002036659877800407</v>
+        <v>0.00163265306122449</v>
       </c>
       <c r="O19">
-        <v>0.08044806517311609</v>
+        <v>0.07428571428571429</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1120162932790224</v>
+        <v>0.1191836734693878</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Loyola Maryland_B.xlsx
+++ b/team_specific_matrix/Loyola Maryland_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2072368421052632</v>
+        <v>0.2078313253012048</v>
       </c>
       <c r="C2">
-        <v>0.5131578947368421</v>
+        <v>0.5150602409638554</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01973684210526316</v>
+        <v>0.02108433734939759</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1644736842105263</v>
+        <v>0.1656626506024096</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09539473684210527</v>
+        <v>0.09036144578313253</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006329113924050633</v>
+        <v>0.005780346820809248</v>
       </c>
       <c r="C3">
-        <v>0.0189873417721519</v>
+        <v>0.01734104046242774</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05063291139240506</v>
+        <v>0.05202312138728324</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7025316455696202</v>
+        <v>0.6820809248554913</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2215189873417721</v>
+        <v>0.2427745664739884</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7368421052631579</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2631578947368421</v>
+        <v>0.282051282051282</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07692307692307693</v>
+        <v>0.07335907335907337</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008547008547008548</v>
+        <v>0.007722007722007722</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05982905982905983</v>
+        <v>0.05791505791505792</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1837606837606838</v>
+        <v>0.1814671814671815</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01282051282051282</v>
+        <v>0.01158301158301158</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1666666666666667</v>
+        <v>0.1698841698841699</v>
       </c>
       <c r="R6">
-        <v>0.07692307692307693</v>
+        <v>0.08494208494208494</v>
       </c>
       <c r="S6">
-        <v>0.4145299145299146</v>
+        <v>0.4131274131274131</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.141025641025641</v>
+        <v>0.1352941176470588</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02564102564102564</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05128205128205128</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1282051282051282</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02564102564102564</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1858974358974359</v>
+        <v>0.1941176470588235</v>
       </c>
       <c r="R7">
-        <v>0.0641025641025641</v>
+        <v>0.07058823529411765</v>
       </c>
       <c r="S7">
-        <v>0.3782051282051282</v>
+        <v>0.3764705882352941</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0825</v>
+        <v>0.08466819221967964</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.025</v>
+        <v>0.02288329519450801</v>
       </c>
       <c r="E8">
-        <v>0.0025</v>
+        <v>0.002288329519450801</v>
       </c>
       <c r="F8">
-        <v>0.055</v>
+        <v>0.05720823798627003</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0925</v>
+        <v>0.09382151029748284</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.015</v>
+        <v>0.01601830663615561</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.205</v>
+        <v>0.2036613272311213</v>
       </c>
       <c r="R8">
-        <v>0.1075</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="S8">
-        <v>0.415</v>
+        <v>0.414187643020595</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1204188481675393</v>
+        <v>0.1214953271028037</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03141361256544502</v>
+        <v>0.02803738317757009</v>
       </c>
       <c r="E9">
-        <v>0.005235602094240838</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="F9">
-        <v>0.07329842931937172</v>
+        <v>0.07943925233644859</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03664921465968586</v>
+        <v>0.03738317757009346</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01570680628272251</v>
+        <v>0.02336448598130841</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2303664921465969</v>
+        <v>0.2383177570093458</v>
       </c>
       <c r="R9">
-        <v>0.1099476439790576</v>
+        <v>0.1074766355140187</v>
       </c>
       <c r="S9">
-        <v>0.3769633507853403</v>
+        <v>0.3598130841121495</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1118991331757289</v>
+        <v>0.1105563480741797</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01339637509850276</v>
+        <v>0.01283880171184023</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07880220646178093</v>
+        <v>0.07703281027104136</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1142631993695823</v>
+        <v>0.1098430813124108</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01654846335697399</v>
+        <v>0.01711840228245364</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2214342001576044</v>
+        <v>0.2232524964336662</v>
       </c>
       <c r="R10">
-        <v>0.08825847123719464</v>
+        <v>0.0898716119828816</v>
       </c>
       <c r="S10">
-        <v>0.355397951142632</v>
+        <v>0.3594864479315264</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1403508771929824</v>
+        <v>0.1414790996784566</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.143859649122807</v>
+        <v>0.1414790996784566</v>
       </c>
       <c r="K11">
-        <v>0.2315789473684211</v>
+        <v>0.2315112540192926</v>
       </c>
       <c r="L11">
-        <v>0.4666666666666667</v>
+        <v>0.4694533762057878</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01754385964912281</v>
+        <v>0.01607717041800643</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.697841726618705</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1726618705035971</v>
+        <v>0.2156862745098039</v>
       </c>
       <c r="K12">
-        <v>0.007194244604316547</v>
+        <v>0.006535947712418301</v>
       </c>
       <c r="L12">
-        <v>0.04316546762589928</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.07913669064748201</v>
+        <v>0.0718954248366013</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6410256410256411</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2307692307692308</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1282051282051282</v>
+        <v>0.1304347826086956</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03017241379310345</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.125</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="I15">
-        <v>0.04310344827586207</v>
+        <v>0.04230769230769231</v>
       </c>
       <c r="J15">
-        <v>0.4439655172413793</v>
+        <v>0.4384615384615385</v>
       </c>
       <c r="K15">
-        <v>0.06896551724137931</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.008620689655172414</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06465517241379311</v>
+        <v>0.06538461538461539</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2155172413793103</v>
+        <v>0.2115384615384615</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03804347826086957</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.125</v>
+        <v>0.1173469387755102</v>
       </c>
       <c r="I16">
-        <v>0.108695652173913</v>
+        <v>0.1122448979591837</v>
       </c>
       <c r="J16">
-        <v>0.391304347826087</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="K16">
-        <v>0.1467391304347826</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0108695652173913</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="N16">
-        <v>0.005434782608695652</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="O16">
-        <v>0.08152173913043478</v>
+        <v>0.08673469387755102</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09239130434782608</v>
+        <v>0.09183673469387756</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0105708245243129</v>
+        <v>0.00945179584120983</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1374207188160677</v>
+        <v>0.1474480151228733</v>
       </c>
       <c r="I17">
-        <v>0.09090909090909091</v>
+        <v>0.0888468809073724</v>
       </c>
       <c r="J17">
-        <v>0.427061310782241</v>
+        <v>0.4234404536862004</v>
       </c>
       <c r="K17">
-        <v>0.09725158562367865</v>
+        <v>0.09640831758034027</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01691331923890063</v>
+        <v>0.02079395085066163</v>
       </c>
       <c r="N17">
-        <v>0.002114164904862579</v>
+        <v>0.001890359168241966</v>
       </c>
       <c r="O17">
-        <v>0.08668076109936575</v>
+        <v>0.08506616257088846</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1310782241014799</v>
+        <v>0.1266540642722117</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.004926108374384237</v>
+        <v>0.01762114537444934</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1773399014778325</v>
+        <v>0.1718061674008811</v>
       </c>
       <c r="I18">
-        <v>0.06896551724137931</v>
+        <v>0.07488986784140969</v>
       </c>
       <c r="J18">
-        <v>0.4088669950738916</v>
+        <v>0.4052863436123348</v>
       </c>
       <c r="K18">
-        <v>0.1280788177339902</v>
+        <v>0.118942731277533</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01477832512315271</v>
+        <v>0.013215859030837</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07881773399014778</v>
+        <v>0.0881057268722467</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1182266009852217</v>
+        <v>0.1101321585903084</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01877551020408163</v>
+        <v>0.01703703703703704</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2048979591836735</v>
+        <v>0.2014814814814815</v>
       </c>
       <c r="I19">
-        <v>0.08489795918367347</v>
+        <v>0.08666666666666667</v>
       </c>
       <c r="J19">
-        <v>0.3893877551020408</v>
+        <v>0.3933333333333333</v>
       </c>
       <c r="K19">
-        <v>0.08653061224489796</v>
+        <v>0.08592592592592592</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02040816326530612</v>
+        <v>0.02074074074074074</v>
       </c>
       <c r="N19">
-        <v>0.00163265306122449</v>
+        <v>0.001481481481481481</v>
       </c>
       <c r="O19">
-        <v>0.07428571428571429</v>
+        <v>0.07333333333333333</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1191836734693878</v>
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
